--- a/Altium/khai báo chân.xlsx
+++ b/Altium/khai báo chân.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Micromouse\Micromouse_SRC_K68\Altium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88932B45-13A7-45C0-B4CA-460061A33E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13967C65-905A-458E-93CB-975AA326F08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14370" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="0" windowWidth="14580" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xuất cho tôi trang tính ( excel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>Số thứ tự</t>
   </si>
@@ -287,6 +287,33 @@
   </si>
   <si>
     <t>ir thu right</t>
+  </si>
+  <si>
+    <t>DBL_1</t>
+  </si>
+  <si>
+    <t>DBL_2</t>
+  </si>
+  <si>
+    <t>DBL_3</t>
+  </si>
+  <si>
+    <t>DBL_4</t>
+  </si>
+  <si>
+    <t>DBL_5</t>
+  </si>
+  <si>
+    <t>DBL_6</t>
+  </si>
+  <si>
+    <t>DBL_7</t>
+  </si>
+  <si>
+    <t>DBL_8</t>
+  </si>
+  <si>
+    <t>BUZZER</t>
   </si>
 </sst>
 </file>
@@ -476,24 +503,6 @@
         <b/>
         <family val="2"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -552,6 +561,24 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
@@ -595,11 +622,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Bảng_1" displayName="Bảng_1" ref="A1:D67" headerRowDxfId="4" dataDxfId="2" totalsRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Bảng_1" displayName="Bảng_1" ref="A1:D67" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Số thứ tự" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tên chân" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Chức năng" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Số thứ tự" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tên chân" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Chức năng" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{A977F928-0370-4DFB-BF18-2CD16DC9D181}" name="Column1" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="xuất cho tôi trang tính ( excel-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -810,8 +837,8 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1349,13 +1376,15 @@
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="16"/>
+      <c r="C51" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
@@ -1391,40 +1420,48 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="16"/>
+      <c r="C55" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -1449,40 +1486,48 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="16"/>
+      <c r="C61" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A63" s="14">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="16"/>
+      <c r="C63" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="16"/>
+      <c r="C64" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
